--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,25 +481,30 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>n_days</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ind_1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ind_2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ind_3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ind_4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ind_5</t>
         </is>
@@ -521,13 +526,15 @@
         <v>2.12</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.5</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>6.5</v>
@@ -539,18 +546,21 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>31</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.90748</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.89708</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.87579</v>
       </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
       <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -570,13 +580,15 @@
         <v>2.34</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.1</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>7.1</v>
@@ -588,18 +600,21 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9407799999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.93599</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.92467</v>
       </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
       <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -619,13 +634,13 @@
         <v>2.34</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G4" t="n">
-        <v>29.5</v>
+        <v>14.75</v>
       </c>
       <c r="H4" t="n">
         <v>29.5</v>
@@ -637,18 +652,21 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9612000000000001</v>
+        <v>31</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9612000000000001</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9612000000000001</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -668,13 +686,13 @@
         <v>2.56</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3</v>
+        <v>11.1</v>
       </c>
       <c r="H5" t="n">
         <v>33.3</v>
@@ -686,18 +704,21 @@
         <v>0.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.96053</v>
+        <v>30</v>
       </c>
       <c r="L5" t="n">
-        <v>0.96053</v>
+        <v>0.9954499999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.96053</v>
+        <v>0.9954499999999999</v>
       </c>
       <c r="N5" t="n">
+        <v>0.9954499999999999</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.9993300000000001</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,13 +738,13 @@
         <v>2.34</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="G6" t="n">
-        <v>83.7</v>
+        <v>13.95</v>
       </c>
       <c r="H6" t="n">
         <v>83.7</v>
@@ -735,18 +756,21 @@
         <v>2.4</v>
       </c>
       <c r="K6" t="n">
-        <v>0.95346</v>
+        <v>31</v>
       </c>
       <c r="L6" t="n">
-        <v>0.95346</v>
+        <v>0.98475</v>
       </c>
       <c r="M6" t="n">
-        <v>0.95346</v>
+        <v>0.98475</v>
       </c>
       <c r="N6" t="n">
+        <v>0.98475</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.99226</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -766,13 +790,13 @@
         <v>1.84</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>131</v>
+        <v>13.1</v>
       </c>
       <c r="H7" t="n">
         <v>131</v>
@@ -784,18 +808,21 @@
         <v>5.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.94187</v>
+        <v>30</v>
       </c>
       <c r="L7" t="n">
-        <v>0.94187</v>
+        <v>0.96773</v>
       </c>
       <c r="M7" t="n">
-        <v>0.94187</v>
+        <v>0.96773</v>
       </c>
       <c r="N7" t="n">
+        <v>0.96773</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.98067</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -815,13 +842,13 @@
         <v>1.64</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="G8" t="n">
-        <v>167.4</v>
+        <v>15.21818181818182</v>
       </c>
       <c r="H8" t="n">
         <v>167.4</v>
@@ -833,18 +860,21 @@
         <v>17.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.90572</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>0.90572</v>
+        <v>0.93075</v>
       </c>
       <c r="M8" t="n">
-        <v>0.90572</v>
+        <v>0.93075</v>
       </c>
       <c r="N8" t="n">
+        <v>0.93075</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.94452</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,13 +894,13 @@
         <v>1.66</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="G9" t="n">
-        <v>198.4</v>
+        <v>18.03636363636364</v>
       </c>
       <c r="H9" t="n">
         <v>198.4</v>
@@ -882,18 +912,21 @@
         <v>11.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.92314</v>
+        <v>31</v>
       </c>
       <c r="L9" t="n">
-        <v>0.92314</v>
+        <v>0.94817</v>
       </c>
       <c r="M9" t="n">
-        <v>0.92314</v>
+        <v>0.94817</v>
       </c>
       <c r="N9" t="n">
+        <v>0.94817</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.96194</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -913,13 +946,13 @@
         <v>1.9</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>81.40000000000001</v>
+        <v>16.28</v>
       </c>
       <c r="H10" t="n">
         <v>81.40000000000001</v>
@@ -931,18 +964,21 @@
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>0.94987</v>
+        <v>30</v>
       </c>
       <c r="L10" t="n">
-        <v>0.94987</v>
+        <v>0.9822</v>
       </c>
       <c r="M10" t="n">
-        <v>0.94987</v>
+        <v>0.9822</v>
       </c>
       <c r="N10" t="n">
+        <v>0.9822</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.98867</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -965,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G11" t="n">
         <v>24.3</v>
@@ -980,18 +1016,21 @@
         <v>0.4</v>
       </c>
       <c r="K11" t="n">
-        <v>0.95991</v>
+        <v>31</v>
       </c>
       <c r="L11" t="n">
-        <v>0.95991</v>
+        <v>0.99746</v>
       </c>
       <c r="M11" t="n">
-        <v>0.95991</v>
+        <v>0.99746</v>
       </c>
       <c r="N11" t="n">
+        <v>0.99746</v>
+      </c>
+      <c r="O11" t="n">
         <v>0.99871</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,13 +1050,13 @@
         <v>2.26</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="H12" t="n">
         <v>35</v>
@@ -1029,18 +1068,21 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9612000000000001</v>
+        <v>30</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9612000000000001</v>
+        <v>0.99741</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9612000000000001</v>
+        <v>0.99741</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0.99741</v>
       </c>
       <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1060,13 +1102,15 @@
         <v>2.1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.9</v>
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>5.9</v>
@@ -1078,18 +1122,21 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>31</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.90749</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.8970900000000001</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.87577</v>
       </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
       <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -520,24 +520,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-8.4</v>
+        <v>-26.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.12</v>
+        <v>5.02</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.7</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>42.8</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -549,13 +547,13 @@
         <v>31</v>
       </c>
       <c r="L2" t="n">
-        <v>0.90748</v>
+        <v>0.75245</v>
       </c>
       <c r="M2" t="n">
-        <v>0.89708</v>
+        <v>0.6999300000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.87579</v>
+        <v>0.62297</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -574,24 +572,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.8</v>
+        <v>-21.8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.34</v>
+        <v>4.76</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.07092198581560284</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.85</v>
       </c>
       <c r="H3" t="n">
-        <v>7.1</v>
+        <v>33.7</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -603,13 +599,13 @@
         <v>28.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9407799999999999</v>
+        <v>0.79571</v>
       </c>
       <c r="M3" t="n">
-        <v>0.93599</v>
+        <v>0.75752</v>
       </c>
       <c r="N3" t="n">
-        <v>0.92467</v>
+        <v>0.7015</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -628,22 +624,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.8</v>
+        <v>-18.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.34</v>
+        <v>5.4</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="G4" t="n">
-        <v>14.75</v>
+        <v>10.94</v>
       </c>
       <c r="H4" t="n">
-        <v>29.5</v>
+        <v>54.7</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -655,13 +651,13 @@
         <v>31</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.82547</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.79539</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.7544999999999999</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -680,43 +676,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.6</v>
+        <v>-9.4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.56</v>
+        <v>4.9</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>33.3</v>
+        <v>66</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>30</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9954499999999999</v>
+        <v>0.89858</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9954499999999999</v>
+        <v>0.88647</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9954499999999999</v>
+        <v>0.86775</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9993300000000001</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -732,43 +728,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.4</v>
+        <v>1.4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.34</v>
+        <v>4.08</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="G6" t="n">
-        <v>13.95</v>
+        <v>13.04</v>
       </c>
       <c r="H6" t="n">
-        <v>83.7</v>
+        <v>65.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07741935483870968</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>31</v>
       </c>
       <c r="L6" t="n">
-        <v>0.98475</v>
+        <v>0.99374</v>
       </c>
       <c r="M6" t="n">
-        <v>0.98475</v>
+        <v>0.99374</v>
       </c>
       <c r="N6" t="n">
-        <v>0.98475</v>
+        <v>0.99374</v>
       </c>
       <c r="O6" t="n">
-        <v>0.99226</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -784,43 +780,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.4</v>
+        <v>11.2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.84</v>
+        <v>3.8</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="H7" t="n">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1933333333333333</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="J7" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>
       </c>
       <c r="L7" t="n">
-        <v>0.96773</v>
+        <v>0.9895699999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.96773</v>
+        <v>0.9895699999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>0.96773</v>
+        <v>0.9895699999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.98067</v>
+        <v>0.99733</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -836,43 +832,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25.8</v>
+        <v>17.2</v>
       </c>
       <c r="D8" t="n">
-        <v>1.64</v>
+        <v>3.62</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="G8" t="n">
-        <v>15.21818181818182</v>
+        <v>14.525</v>
       </c>
       <c r="H8" t="n">
-        <v>167.4</v>
+        <v>58.1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5548387096774193</v>
+        <v>0.05806451612903225</v>
       </c>
       <c r="J8" t="n">
-        <v>17.2</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
         <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>0.93075</v>
+        <v>0.98919</v>
       </c>
       <c r="M8" t="n">
-        <v>0.93075</v>
+        <v>0.98919</v>
       </c>
       <c r="N8" t="n">
-        <v>0.93075</v>
+        <v>0.98919</v>
       </c>
       <c r="O8" t="n">
-        <v>0.94452</v>
+        <v>0.99419</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -888,43 +884,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24.6</v>
+        <v>16.4</v>
       </c>
       <c r="D9" t="n">
-        <v>1.66</v>
+        <v>3.3</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="G9" t="n">
-        <v>18.03636363636364</v>
+        <v>13.27142857142857</v>
       </c>
       <c r="H9" t="n">
-        <v>198.4</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3806451612903226</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>31</v>
       </c>
       <c r="L9" t="n">
-        <v>0.94817</v>
+        <v>0.99124</v>
       </c>
       <c r="M9" t="n">
-        <v>0.94817</v>
+        <v>0.99124</v>
       </c>
       <c r="N9" t="n">
-        <v>0.94817</v>
+        <v>0.99124</v>
       </c>
       <c r="O9" t="n">
-        <v>0.96194</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -940,43 +936,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.2</v>
+        <v>6.6</v>
       </c>
       <c r="D10" t="n">
-        <v>1.9</v>
+        <v>3.96</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>16.28</v>
+        <v>11.61428571428571</v>
       </c>
       <c r="H10" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1133333333333333</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9822</v>
+        <v>0.99095</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9822</v>
+        <v>0.99095</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9822</v>
+        <v>0.99095</v>
       </c>
       <c r="O10" t="n">
-        <v>0.98867</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -992,43 +988,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13.4</v>
+        <v>-4</v>
       </c>
       <c r="D11" t="n">
-        <v>2.26</v>
+        <v>4.24</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="G11" t="n">
-        <v>24.3</v>
+        <v>13.44285714285714</v>
       </c>
       <c r="H11" t="n">
-        <v>24.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01290322580645161</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>31</v>
       </c>
       <c r="L11" t="n">
-        <v>0.99746</v>
+        <v>0.93913</v>
       </c>
       <c r="M11" t="n">
-        <v>0.99746</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>0.99746</v>
+        <v>0.92231</v>
       </c>
       <c r="O11" t="n">
-        <v>0.99871</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1044,22 +1040,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.4</v>
+        <v>-17.6</v>
       </c>
       <c r="D12" t="n">
-        <v>2.26</v>
+        <v>4.380000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>17.5</v>
+        <v>11.84</v>
       </c>
       <c r="H12" t="n">
-        <v>35</v>
+        <v>59.2</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1071,13 +1067,13 @@
         <v>30</v>
       </c>
       <c r="L12" t="n">
-        <v>0.99741</v>
+        <v>0.83304</v>
       </c>
       <c r="M12" t="n">
-        <v>0.99741</v>
+        <v>0.8057800000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>0.99741</v>
+        <v>0.7645999999999999</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1096,24 +1092,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-8.4</v>
+        <v>-24.4</v>
       </c>
       <c r="D13" t="n">
-        <v>2.1</v>
+        <v>4.72</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.28</v>
       </c>
       <c r="H13" t="n">
-        <v>5.9</v>
+        <v>61.4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1125,13 +1119,13 @@
         <v>31</v>
       </c>
       <c r="L13" t="n">
-        <v>0.90749</v>
+        <v>0.77251</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8970900000000001</v>
+        <v>0.72719</v>
       </c>
       <c r="N13" t="n">
-        <v>0.87577</v>
+        <v>0.65978</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
